--- a/public/DataImport/Template_Foundation_FAM.xlsx
+++ b/public/DataImport/Template_Foundation_FAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D98A8-237C-42D9-BCC6-D6AE5B14B457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F50EE-1102-4107-87C5-F50AC668157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{552BC5EA-4DB9-4FE0-803E-9C6053554879}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:H871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
